--- a/biology/Médecine/Hakima_Himmich/Hakima_Himmich.xlsx
+++ b/biology/Médecine/Hakima_Himmich/Hakima_Himmich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hakima Himmich, née à Meknès en 1944, est la fondatrice et ancienne présidente de l'association de lutte contre le sida ALCS au Maroc, plus importante association de lutte contre le sida de la région Moyen Orient/Afrique du Nord[1],[2]. Elle est actuellement présidente de Coalition PLUS[3], réseau international d'ONG communautaires de lutte contre le sida et les hépatites virales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hakima Himmich, née à Meknès en 1944, est la fondatrice et ancienne présidente de l'association de lutte contre le sida ALCS au Maroc, plus importante association de lutte contre le sida de la région Moyen Orient/Afrique du Nord,. Elle est actuellement présidente de Coalition PLUS, réseau international d'ONG communautaires de lutte contre le sida et les hépatites virales.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a diagnostiqué le premier cas de sida au Maroc en 1986 et a été cheffe de service des maladies infectieuses au centre hospitalier Ibn Rochd à Casablanca[2].
-En 1988, Hakima Himmich crée l'Association de Lutte contre le sida au Maroc, ALCS, première association de lutte contre le sida de la région Moyen-Orient/Afrique du Nord[4].
-En 2008, Hakima Himmich cofonde Coalition PLUS, union internationale de lutte contre le sida[5].
-En 2016, elle déplore la baisse d'intérêt du grand public sur le sujet de la maladie du sida alors que 2 millions de nouvelles infections ont eu lieu dans le monde en 2015[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a diagnostiqué le premier cas de sida au Maroc en 1986 et a été cheffe de service des maladies infectieuses au centre hospitalier Ibn Rochd à Casablanca.
+En 1988, Hakima Himmich crée l'Association de Lutte contre le sida au Maroc, ALCS, première association de lutte contre le sida de la région Moyen-Orient/Afrique du Nord.
+En 2008, Hakima Himmich cofonde Coalition PLUS, union internationale de lutte contre le sida.
+En 2016, elle déplore la baisse d'intérêt du grand public sur le sujet de la maladie du sida alors que 2 millions de nouvelles infections ont eu lieu dans le monde en 2015.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Autres fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ancien membre du comité technique du Fonds mondial de lutte contre le sida, la tuberculose et le paludisme[4]
-Ancien membre du comité d'éthique de l'ONUSIDA[4]
-Ancien membre du comité de consultation stratégique et technique contre le VIH/Sida de l'Organisation mondiale de la santé[4]
-Ancien membre du conseil d'administration de l'AFRAVIH[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ancien membre du comité technique du Fonds mondial de lutte contre le sida, la tuberculose et le paludisme
+Ancien membre du comité d'éthique de l'ONUSIDA
+Ancien membre du comité de consultation stratégique et technique contre le VIH/Sida de l'Organisation mondiale de la santé
+Ancien membre du conseil d'administration de l'AFRAVIH</t>
         </is>
       </c>
     </row>
@@ -578,11 +594,13 @@
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2001 : Prix de l'Association Marocaine de l'industrie pharmaceutique[7]
-Ordre du Ouissam alaouite[4]
-Ordre national de la Légion d'honneur[4]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2001 : Prix de l'Association Marocaine de l'industrie pharmaceutique
+Ordre du Ouissam alaouite
+Ordre national de la Légion d'honneur</t>
         </is>
       </c>
     </row>
